--- a/docs/tasks_chart.xlsx
+++ b/docs/tasks_chart.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexj\Desktop\cis350\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\documents\college\CIS350\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA6EF06-DB8D-4952-848A-5E1879B10044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CE0F11E-DABF-4F5C-8866-8C9737456B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="1400" windowWidth="16720" windowHeight="10000" xr2:uid="{EB75195B-BB09-47A7-A039-7DEC849A8FFC}"/>
+    <workbookView xWindow="4836" yWindow="3072" windowWidth="17280" windowHeight="8964" xr2:uid="{EB75195B-BB09-47A7-A039-7DEC849A8FFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>Project</t>
   </si>
@@ -63,6 +60,9 @@
   </si>
   <si>
     <t>Data</t>
+  </si>
+  <si>
+    <t>Total Done</t>
   </si>
 </sst>
 </file>
@@ -143,505 +143,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Deal remaining work hours</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>total</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9/16/2022</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9/20/2022</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10/10/2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10/17/2022</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$17:$G$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-61A8-486D-AF60-47C4BBDE87FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$18</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Actual remaining work hours</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>total</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9/16/2022</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9/20/2022</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10/10/2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10/17/2022</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$18:$G$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>152</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-61A8-486D-AF60-47C4BBDE87FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="t"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1104550303"/>
-        <c:axId val="1104554047"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1104550303"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1104554047"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1104554047"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1104550303"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
               <c:f>Sheet1!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -665,10 +166,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$5</c:f>
+              <c:f>Sheet1!$I$2:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>44820</c:v>
                 </c:pt>
@@ -680,16 +181,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$5</c:f>
+              <c:f>Sheet1!$J$2:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>13</c:v>
                 </c:pt>
@@ -701,6 +205,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -717,11 +224,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$1</c:f>
+              <c:f>Sheet1!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total done</c:v>
+                  <c:v>Total Done</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -740,10 +247,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$5</c:f>
+              <c:f>Sheet1!$I$2:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>44820</c:v>
                 </c:pt>
@@ -755,16 +262,19 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>44851</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44853</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$2:$M$5</c:f>
+              <c:f>Sheet1!$K$2:$K$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -776,6 +286,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1028,563 +541,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2105,51 +1062,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>619124</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>31564</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>70972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>349250</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{516A36E4-C623-C7CB-184A-8D03185CB39D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>542552</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>53042</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>122331</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>33992</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>113366</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>51921</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2168,7 +1089,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2476,22 +1397,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CB58D1B-AE70-4FA8-81C9-60044598D19D}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
-    <col min="4" max="5" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="4" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
-    <col min="9" max="9" width="11.6328125" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.77734375" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2519,11 +1442,14 @@
       <c r="J1" t="s">
         <v>6</v>
       </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
       <c r="M1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2551,11 +1477,14 @@
       <c r="J2">
         <v>13</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
       <c r="M2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2583,11 +1512,14 @@
       <c r="J3">
         <v>13</v>
       </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
       <c r="M3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2615,11 +1547,14 @@
       <c r="J4">
         <v>13</v>
       </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
       <c r="M4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -2647,11 +1582,14 @@
       <c r="J5">
         <v>13</v>
       </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
       <c r="M5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2673,8 +1611,17 @@
       <c r="G6">
         <v>0</v>
       </c>
+      <c r="I6" s="1">
+        <v>44853</v>
+      </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>7</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2697,7 +1644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -2720,7 +1667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2743,7 +1690,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -2766,7 +1713,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -2789,7 +1736,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -2812,7 +1759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -2835,7 +1782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -2858,7 +1805,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2883,7 +1830,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
